--- a/mbs-perturbation/bottleneck/randomForest/smote/bottleneck-randomForest-smote-results.xlsx
+++ b/mbs-perturbation/bottleneck/randomForest/smote/bottleneck-randomForest-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5488126649076517</v>
+        <v>0.7050359712230215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9674418604651163</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7003367003367003</v>
+        <v>0.8270042194092826</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8704380746349377</v>
+        <v>0.8457221350078493</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7706093189964157</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.9948979591836735</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8704453441295545</v>
+        <v>0.9974424552429668</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9063818280151433</v>
+        <v>0.9998691784406071</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.9948453608247423</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9953488372093023</v>
+        <v>0.9897435897435898</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9976689976689977</v>
+        <v>0.9922879177377892</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999783666846944</v>
+        <v>0.9995028780743067</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9674418604651163</v>
+        <v>0.9948717948717949</v>
       </c>
       <c r="D5" t="n">
-        <v>0.983451536643026</v>
+        <v>0.9974293059125964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996322336398052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -546,10 +546,10 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9906976744186047</v>
+        <v>0.9743589743589743</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9953271028037384</v>
+        <v>0.9870129870129869</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8638843967808135</v>
+        <v>0.9399762664095528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9841860465116279</v>
+        <v>0.9907744636316066</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9094459363164035</v>
+        <v>0.9602353770631243</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9552861005949161</v>
+        <v>0.9690188383045527</v>
       </c>
     </row>
   </sheetData>
